--- a/Appium_Demo UI Test Cases.xlsx
+++ b/Appium_Demo UI Test Cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -20,6 +20,9 @@
   </si>
   <si>
     <t>Test Name</t>
+  </si>
+  <si>
+    <t>Name of the Test Method in Python script</t>
   </si>
   <si>
     <t>Test Case</t>
@@ -56,6 +59,9 @@
     <t>WiFi Checkbox Validation</t>
   </si>
   <si>
+    <t>test_WiFi_Checkbox_Validation</t>
+  </si>
+  <si>
     <t>Check whether the Wifi Settings checkbox is checked when it is clicked</t>
   </si>
   <si>
@@ -84,7 +90,10 @@
     <t>TC_02</t>
   </si>
   <si>
-    <t>WiFi Settings Enable Validation</t>
+    <t xml:space="preserve">WiFi Settings Enable Validation       </t>
+  </si>
+  <si>
+    <t>test_WiFi_Settings_Enable_Validation</t>
   </si>
   <si>
     <t>If the checkbox is clicked, WiFi settings tab should be enabled</t>
@@ -108,6 +117,9 @@
     <t>WiFi Settings Disable Validation</t>
   </si>
   <si>
+    <t>test_WiFi_Settings_Disable_Validation</t>
+  </si>
+  <si>
     <t>If the checkbox is not clicked, WiFi settings tab should be disabled</t>
   </si>
   <si>
@@ -129,6 +141,9 @@
     <t>WiFi Settings Text Field Validation</t>
   </si>
   <si>
+    <t>test_WiFi_Settings_Text_Field_Validation</t>
+  </si>
+  <si>
     <t>Check whether the Wifi Settings has the popup window with the text field to edit and click ok</t>
   </si>
   <si>
@@ -151,6 +166,9 @@
   </si>
   <si>
     <t>Save the WiFi Checkbox Status Validation</t>
+  </si>
+  <si>
+    <t>test_Save_the_WiFi_Checkbox_Status_Validation</t>
   </si>
   <si>
     <t>Check whether the Wifi Settings has been saved when we come back to the same page later</t>
@@ -181,6 +199,9 @@
     <t>Slider Validation</t>
   </si>
   <si>
+    <t>test_Slider_Validation</t>
+  </si>
+  <si>
     <t>Check whether the sliding capability in the clock is working properly</t>
   </si>
   <si>
@@ -209,6 +230,9 @@
     <t>Drag And Drop validation</t>
   </si>
   <si>
+    <t>test_Drag_And_Drop_Validation</t>
+  </si>
+  <si>
     <t>Check whether the drag and drop functionality will do some actions</t>
   </si>
   <si>
@@ -235,6 +259,9 @@
   </si>
   <si>
     <t>Long Press Validation</t>
+  </si>
+  <si>
+    <t>test_Long_Press_Validation</t>
   </si>
   <si>
     <t>Check whether the long press enabled button is functioning properly</t>
@@ -318,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -327,6 +354,9 @@
     </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -384,9 +414,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="3" width="24.71"/>
-    <col customWidth="1" min="4" max="4" width="31.71"/>
-    <col customWidth="1" min="5" max="5" width="22.14"/>
-    <col customWidth="1" min="6" max="6" width="20.43"/>
+    <col customWidth="1" min="4" max="5" width="31.71"/>
+    <col customWidth="1" min="6" max="6" width="22.14"/>
+    <col customWidth="1" min="7" max="7" width="20.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -399,7 +429,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -423,414 +453,441 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
     </row>
     <row r="2" ht="129.0" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="F2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>21</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="A4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
+      <c r="L4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="E5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
+      <c r="E6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
+      <c r="D7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
+      <c r="C8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="A9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
+      <c r="L9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1003">
